--- a/biology/Microbiologie/Bacille_(forme)/Bacille_(forme).xlsx
+++ b/biology/Microbiologie/Bacille_(forme)/Bacille_(forme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un bacille est une bactérie de forme allongée dite « en bâtonnet » — du latin baculus ou baculum, bâton — par opposition à la forme cocci (« ronde »).
 La forme des bactéries et la coloration de Gram sont des critères permettant de les classer.
@@ -512,7 +524,9 @@
           <t>Exemples de bacilles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bacille de Koch : bactérie qui est responsable de la tuberculose. Il s'infiltre dans l'organisme par les voies respiratoires, et se développe dans les os, les reins, la peau, les méninges, mais le plus souvent dans les poumons.
 Le bacille du tétanos : il se trouve dans la terre et peut pénétrer dans l'organisme par des plaies profondes. Ce bacille libère des toxines qui, dans un premier temps, paralysent les muscles, et, si la maladie n'est pas traitée, peuvent être mortelles.
@@ -544,7 +558,9 @@
           <t>Exemples de formes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Les bacilles selon leur genre, peuvent s'organiser de différentes façons :
 en chaîne (ex. : Lactobacillus, bactérie commensale du vagin) ;
